--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/CodeSystem/ng-relationship</t>
+    <t>https://nphcda.gov.ng/immunizationIG/CodeSystem/nigeria-relationship</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-nigeria-relationship.xlsx
+++ b/CodeSystem-nigeria-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
